--- a/top_league_soccer/Excel/dados_eredivisie.xlsx
+++ b/top_league_soccer/Excel/dados_eredivisie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
   <si>
     <t>#</t>
   </si>
@@ -112,24 +112,24 @@
     <t>Nijmegen</t>
   </si>
   <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
     <t>Sparta Rotterdam</t>
   </si>
   <si>
-    <t>Utrecht</t>
+    <t>Fortuna Sittard</t>
+  </si>
+  <si>
+    <t>Almere City</t>
   </si>
   <si>
     <t>Zwolle</t>
   </si>
   <si>
-    <t>Almere City</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Fortuna Sittard</t>
-  </si>
-  <si>
     <t>Heracles Almelo</t>
   </si>
   <si>
@@ -139,172 +139,175 @@
     <t>Waalwijk</t>
   </si>
   <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
     <t>FC Volendam</t>
   </si>
   <si>
-    <t>Vitesse</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>0.9</t>
   </si>
   <si>
-    <t>0.8</t>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.4</t>
   </si>
   <si>
     <t>1.7</t>
   </si>
   <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
     <t>1.5</t>
   </si>
   <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>2.1</t>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>2.2</t>
   </si>
   <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>1.8</t>
-  </si>
-  <si>
     <t>7.5</t>
   </si>
   <si>
-    <t>7.8</t>
+    <t>7.4</t>
   </si>
   <si>
     <t>6.5</t>
   </si>
   <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>5.3</t>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>4.3</t>
   </si>
   <si>
     <t>5.8</t>
   </si>
   <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
     <t>3.5</t>
   </si>
   <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>5.5</t>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.8</t>
   </si>
   <si>
     <t>5.2</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>91%</t>
-  </si>
-  <si>
-    <t>85%</t>
-  </si>
-  <si>
-    <t>69%</t>
-  </si>
-  <si>
-    <t>64%</t>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>92%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>58%</t>
   </si>
   <si>
     <t>50%</t>
   </si>
   <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>59%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>3.64</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>2.91</t>
-  </si>
-  <si>
-    <t>4.18</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.55</t>
-  </si>
-  <si>
-    <t>2.73</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
-    <t>2.95</t>
-  </si>
-  <si>
-    <t>2.68</t>
-  </si>
-  <si>
-    <t>2.77</t>
-  </si>
-  <si>
-    <t>3.68</t>
-  </si>
-  <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>2.82</t>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>2.83</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>3.63</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>3.75</t>
   </si>
 </sst>
 </file>
@@ -705,13 +708,13 @@
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -728,13 +731,13 @@
         <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
         <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -751,13 +754,13 @@
         <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -771,16 +774,16 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
         <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -794,16 +797,16 @@
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -817,16 +820,16 @@
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
         <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -840,16 +843,16 @@
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -860,19 +863,19 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -883,19 +886,19 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -909,16 +912,16 @@
         <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
         <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -932,16 +935,16 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
         <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -952,19 +955,19 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -975,19 +978,19 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
         <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -998,19 +1001,19 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1021,19 +1024,19 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1047,16 +1050,16 @@
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1070,16 +1073,16 @@
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1090,19 +1093,19 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_eredivisie.xlsx
+++ b/top_league_soccer/Excel/dados_eredivisie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="100">
   <si>
     <t>#</t>
   </si>
@@ -106,24 +106,24 @@
     <t>Ajax</t>
   </si>
   <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
     <t>G. A. Eagle</t>
   </si>
   <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
     <t>Utrecht</t>
   </si>
   <si>
     <t>Heerenveen</t>
   </si>
   <si>
+    <t>Fortuna Sittard</t>
+  </si>
+  <si>
     <t>Sparta Rotterdam</t>
   </si>
   <si>
-    <t>Fortuna Sittard</t>
-  </si>
-  <si>
     <t>Almere City</t>
   </si>
   <si>
@@ -148,73 +148,73 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>0.9</t>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
   <si>
     <t>1.6</t>
   </si>
   <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.2</t>
+    <t>1.7</t>
   </si>
   <si>
     <t>1.4</t>
   </si>
   <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.5</t>
+    <t>2.1</t>
   </si>
   <si>
     <t>1.8</t>
   </si>
   <si>
-    <t>2.2</t>
-  </si>
-  <si>
     <t>2.0</t>
   </si>
   <si>
+    <t>7.6</t>
+  </si>
+  <si>
     <t>7.5</t>
   </si>
   <si>
-    <t>7.4</t>
-  </si>
-  <si>
     <t>6.5</t>
   </si>
   <si>
-    <t>6.3</t>
-  </si>
-  <si>
     <t>6.1</t>
   </si>
   <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>5.8</t>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>5.9</t>
   </si>
   <si>
     <t>5.6</t>
   </si>
   <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3.2</t>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.1</t>
   </si>
   <si>
     <t>3.8</t>
@@ -223,91 +223,97 @@
     <t>5.2</t>
   </si>
   <si>
-    <t>100%</t>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>92%</t>
+  </si>
+  <si>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>48%</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>56%</t>
   </si>
   <si>
     <t>79%</t>
   </si>
   <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>88%</t>
-  </si>
-  <si>
-    <t>96%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>92%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>33%</t>
-  </si>
-  <si>
-    <t>46%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>3.83</t>
-  </si>
-  <si>
-    <t>3.29</t>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>3.28</t>
   </si>
   <si>
     <t>2.92</t>
   </si>
   <si>
-    <t>2.83</t>
+    <t>2.88</t>
   </si>
   <si>
     <t>4.00</t>
   </si>
   <si>
-    <t>3.63</t>
-  </si>
-  <si>
-    <t>2.54</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>2.67</t>
-  </si>
-  <si>
-    <t>2.88</t>
-  </si>
-  <si>
-    <t>2.71</t>
-  </si>
-  <si>
-    <t>3.13</t>
-  </si>
-  <si>
-    <t>3.58</t>
-  </si>
-  <si>
-    <t>3.75</t>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>2.84</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>3.76</t>
+  </si>
+  <si>
+    <t>2.60</t>
   </si>
 </sst>
 </file>
@@ -708,13 +714,13 @@
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -731,13 +737,13 @@
         <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
         <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -754,13 +760,13 @@
         <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
         <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -777,13 +783,13 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
         <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -800,13 +806,13 @@
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -823,13 +829,13 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -840,19 +846,19 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -863,19 +869,19 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
         <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -886,19 +892,19 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -909,19 +915,19 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
         <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -932,19 +938,19 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
         <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -955,7 +961,7 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>64</v>
@@ -967,7 +973,7 @@
         <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -978,19 +984,19 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1010,10 +1016,10 @@
         <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1024,7 +1030,7 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
@@ -1033,10 +1039,10 @@
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1047,7 +1053,7 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
         <v>67</v>
@@ -1056,10 +1062,10 @@
         <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1076,13 +1082,13 @@
         <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1093,19 +1099,19 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_eredivisie.xlsx
+++ b/top_league_soccer/Excel/dados_eredivisie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
   <si>
     <t>#</t>
   </si>
@@ -109,10 +109,13 @@
     <t>Nijmegen</t>
   </si>
   <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
     <t>G. A. Eagle</t>
   </si>
   <si>
-    <t>Utrecht</t>
+    <t>Sparta Rotterdam</t>
   </si>
   <si>
     <t>Heerenveen</t>
@@ -121,9 +124,6 @@
     <t>Fortuna Sittard</t>
   </si>
   <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
     <t>Almere City</t>
   </si>
   <si>
@@ -139,181 +139,193 @@
     <t>Waalwijk</t>
   </si>
   <si>
+    <t>FC Volendam</t>
+  </si>
+  <si>
     <t>Vitesse</t>
   </si>
   <si>
-    <t>FC Volendam</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>0.8</t>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
   <si>
     <t>1.5</t>
   </si>
   <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
     <t>1.7</t>
   </si>
   <si>
-    <t>1.4</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
-    <t>1.8</t>
-  </si>
-  <si>
     <t>2.0</t>
   </si>
   <si>
+    <t>7.4</t>
+  </si>
+  <si>
     <t>7.6</t>
   </si>
   <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>6.1</t>
+    <t>6.6</t>
   </si>
   <si>
     <t>6.2</t>
   </si>
   <si>
-    <t>4.4</t>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>5.5</t>
   </si>
   <si>
     <t>5.0</t>
   </si>
   <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>4.6</t>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>4.7</t>
   </si>
   <si>
     <t>3.7</t>
   </si>
   <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>96%</t>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>93%</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t>97%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>87%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>63%</t>
   </si>
   <si>
     <t>80%</t>
   </si>
   <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>88%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>72%</t>
-  </si>
-  <si>
-    <t>92%</t>
-  </si>
-  <si>
-    <t>68%</t>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>57%</t>
   </si>
   <si>
     <t>60%</t>
   </si>
   <si>
-    <t>47%</t>
-  </si>
-  <si>
-    <t>32%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>3.72</t>
-  </si>
-  <si>
-    <t>3.28</t>
-  </si>
-  <si>
-    <t>2.92</t>
-  </si>
-  <si>
-    <t>2.88</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>3.56</t>
-  </si>
-  <si>
-    <t>2.84</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>3.44</t>
-  </si>
-  <si>
-    <t>2.68</t>
-  </si>
-  <si>
-    <t>3.08</t>
-  </si>
-  <si>
-    <t>3.76</t>
-  </si>
-  <si>
-    <t>2.60</t>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>3.73</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>3.97</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>2.93</t>
+  </si>
+  <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>2.87</t>
+  </si>
+  <si>
+    <t>2.65</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>3.00</t>
   </si>
 </sst>
 </file>
@@ -711,16 +723,16 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
         <v>75</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -731,19 +743,19 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -754,19 +766,19 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
         <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -777,19 +789,19 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
         <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -800,19 +812,19 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -823,19 +835,19 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -846,19 +858,19 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -869,19 +881,19 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -892,19 +904,19 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
         <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -915,19 +927,19 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
         <v>75</v>
       </c>
-      <c r="F11" t="s">
-        <v>81</v>
-      </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -938,16 +950,16 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
         <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
         <v>96</v>
@@ -961,19 +973,19 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -984,19 +996,19 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1007,19 +1019,19 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1030,19 +1042,19 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1056,16 +1068,16 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1076,19 +1088,19 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1099,19 +1111,19 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
